--- a/resources/Enter Items.xlsx
+++ b/resources/Enter Items.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3229" uniqueCount="2164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3233" uniqueCount="2168">
   <si>
     <t xml:space="preserve">Item Code</t>
   </si>
@@ -6512,6 +6512,18 @@
   </si>
   <si>
     <t xml:space="preserve">Sugar Pie Pumpkins by the piece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AEGG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eggs, assorted sizes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eggs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dozen</t>
   </si>
 </sst>
 </file>
@@ -6526,6 +6538,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -6547,6 +6560,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -6621,18 +6635,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E807"/>
+  <dimension ref="A1:E808"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A791" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F476" activeCellId="0" sqref="F476:F483"/>
+      <selection pane="bottomLeft" activeCell="F808" activeCellId="0" sqref="F808"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.55"/>
@@ -20359,6 +20373,20 @@
         <v>264</v>
       </c>
     </row>
+    <row r="808" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A808" s="0" t="s">
+        <v>2164</v>
+      </c>
+      <c r="B808" s="0" t="s">
+        <v>2165</v>
+      </c>
+      <c r="D808" s="0" t="s">
+        <v>2166</v>
+      </c>
+      <c r="E808" s="0" t="s">
+        <v>2167</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
